--- a/biology/Botanique/Gastrococos_crispa/Gastrococos_crispa.xlsx
+++ b/biology/Botanique/Gastrococos_crispa/Gastrococos_crispa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acrocomia crispa ou  Gastrococos crispa  est une espèce de la famille des Arecaceae (Palmiers). C'est la seule espèce acceptée à l'heure actuelle du genre Gastrococos.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acrocomia aculeata (Jacq.) Lodd. ex R.Keith
 Acrocomia corumbaensi S.A.Vianna
@@ -549,7 +563,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Cocoseae
@@ -583,7 +599,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Acrocomia crispa est endémique de l'île de Cuba.
 Elle pousse à l'état naturel dans les forêts clairsemées sur des sols pierreux.
@@ -615,7 +633,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Acrocomia crispa est un palmier au stipe solitaire et épineux, à la forme caractéristique, qui possède un renflement au-dessus de la base du tronc et en dessous de la couronne qui est composée de feuilles arquées.
 </t>
@@ -646,7 +666,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Gastrococos crispa aime les sols bien drainés mais humides. Il est de croissance lente au début mais pousse nettement plus vite une fois que le tronc est suffisamment grand.
 </t>
